--- a/data/world_co2_emission_excel.xlsx
+++ b/data/world_co2_emission_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musth\OneDrive\Desktop\fit3179\fit3179-assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{89455F80-1742-4FCF-A0D1-EB2C350FA062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479819BD-1586-4F39-AD16-35A16151185B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="world_co2_emission" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>year</t>
   </si>
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,10 +526,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -872,16 +886,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,8 +909,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -902,11 +923,11 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>425000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1971</v>
       </c>
@@ -917,8 +938,12 @@
         <f>(B3-425000000000)/425000000000</f>
         <v>3.5294117647058823E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="3">
+        <f>(B3-425000000000)/425000000000</f>
+        <v>3.5294117647058823E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1972</v>
       </c>
@@ -926,11 +951,15 @@
         <v>457000000000</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C49" si="0">(B4-425000000000)/425000000000</f>
+        <f t="shared" ref="C4:D49" si="0">(B4-425000000000)/425000000000</f>
         <v>7.5294117647058817E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D49" si="1">(B4-425000000000)/425000000000</f>
+        <v>7.5294117647058817E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1973</v>
       </c>
@@ -941,8 +970,12 @@
         <f t="shared" si="0"/>
         <v>0.11294117647058824</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11294117647058824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1974</v>
       </c>
@@ -953,8 +986,12 @@
         <f t="shared" si="0"/>
         <v>0.15294117647058825</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15294117647058825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -965,8 +1002,12 @@
         <f t="shared" si="0"/>
         <v>0.19294117647058823</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19294117647058823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1976</v>
       </c>
@@ -977,8 +1018,12 @@
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1977</v>
       </c>
@@ -989,8 +1034,12 @@
         <f t="shared" si="0"/>
         <v>0.27764705882352941</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27764705882352941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -1001,8 +1050,12 @@
         <f t="shared" si="0"/>
         <v>0.32235294117647056</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32235294117647056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1979</v>
       </c>
@@ -1013,8 +1066,12 @@
         <f t="shared" si="0"/>
         <v>0.36705882352941177</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.36705882352941177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1980</v>
       </c>
@@ -1025,8 +1082,12 @@
         <f t="shared" si="0"/>
         <v>0.41411764705882353</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41411764705882353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1981</v>
       </c>
@@ -1037,8 +1098,12 @@
         <f t="shared" si="0"/>
         <v>0.45882352941176469</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45882352941176469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1982</v>
       </c>
@@ -1049,8 +1114,12 @@
         <f t="shared" si="0"/>
         <v>0.50117647058823533</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50117647058823533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1983</v>
       </c>
@@ -1061,8 +1130,12 @@
         <f t="shared" si="0"/>
         <v>0.54588235294117649</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54588235294117649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1984</v>
       </c>
@@ -1073,8 +1146,12 @@
         <f t="shared" si="0"/>
         <v>0.59058823529411764</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59058823529411764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1985</v>
       </c>
@@ -1085,8 +1162,12 @@
         <f t="shared" si="0"/>
         <v>0.63764705882352946</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63764705882352946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1986</v>
       </c>
@@ -1097,8 +1178,12 @@
         <f t="shared" si="0"/>
         <v>0.68470588235294116</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68470588235294116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1987</v>
       </c>
@@ -1109,8 +1194,12 @@
         <f t="shared" si="0"/>
         <v>0.73411764705882354</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.73411764705882354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1988</v>
       </c>
@@ -1121,8 +1210,12 @@
         <f t="shared" si="0"/>
         <v>0.78588235294117648</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78588235294117648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1989</v>
       </c>
@@ -1133,8 +1226,12 @@
         <f t="shared" si="0"/>
         <v>0.83764705882352941</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83764705882352941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1990</v>
       </c>
@@ -1145,8 +1242,12 @@
         <f t="shared" si="0"/>
         <v>0.88941176470588235</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88941176470588235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1991</v>
       </c>
@@ -1157,8 +1258,12 @@
         <f t="shared" si="0"/>
         <v>0.94352941176470584</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94352941176470584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1992</v>
       </c>
@@ -1169,8 +1274,12 @@
         <f t="shared" si="0"/>
         <v>0.99529411764705877</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99529411764705877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -1181,8 +1290,12 @@
         <f t="shared" si="0"/>
         <v>1.0470588235294118</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0470588235294118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -1193,8 +1306,12 @@
         <f t="shared" si="0"/>
         <v>1.0988235294117648</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0988235294117648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1995</v>
       </c>
@@ -1205,8 +1322,12 @@
         <f t="shared" si="0"/>
         <v>1.1529411764705881</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1529411764705881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1996</v>
       </c>
@@ -1217,8 +1338,12 @@
         <f t="shared" si="0"/>
         <v>1.2094117647058824</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2094117647058824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1997</v>
       </c>
@@ -1229,8 +1354,12 @@
         <f t="shared" si="0"/>
         <v>1.2658823529411765</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2658823529411765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1998</v>
       </c>
@@ -1241,8 +1370,12 @@
         <f t="shared" si="0"/>
         <v>1.3223529411764705</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3223529411764705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -1253,8 +1386,12 @@
         <f t="shared" si="0"/>
         <v>1.3764705882352941</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3764705882352941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -1265,8 +1402,12 @@
         <f t="shared" si="0"/>
         <v>1.4470588235294117</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4470588235294117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -1277,8 +1418,12 @@
         <f t="shared" si="0"/>
         <v>1.4941176470588236</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4941176470588236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -1289,8 +1434,12 @@
         <f t="shared" si="0"/>
         <v>1.5647058823529412</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5647058823529412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -1301,8 +1450,12 @@
         <f t="shared" si="0"/>
         <v>1.611764705882353</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.611764705882353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2004</v>
       </c>
@@ -1313,8 +1466,12 @@
         <f t="shared" si="0"/>
         <v>1.6823529411764706</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6823529411764706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -1325,8 +1482,12 @@
         <f t="shared" si="0"/>
         <v>1.7529411764705882</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7529411764705882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -1337,8 +1498,12 @@
         <f t="shared" si="0"/>
         <v>1.8235294117647058</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8235294117647058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2007</v>
       </c>
@@ -1349,8 +1514,12 @@
         <f t="shared" si="0"/>
         <v>1.8941176470588235</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8941176470588235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2008</v>
       </c>
@@ -1361,8 +1530,12 @@
         <f t="shared" si="0"/>
         <v>1.9647058823529411</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9647058823529411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -1373,8 +1546,12 @@
         <f t="shared" si="0"/>
         <v>2.0352941176470587</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0352941176470587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -1385,8 +1562,12 @@
         <f t="shared" si="0"/>
         <v>2.1294117647058823</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1294117647058823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -1397,8 +1578,12 @@
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -1409,8 +1594,12 @@
         <f t="shared" si="0"/>
         <v>2.2941176470588234</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2941176470588234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2013</v>
       </c>
@@ -1421,8 +1610,12 @@
         <f t="shared" si="0"/>
         <v>2.3647058823529412</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3647058823529412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -1433,8 +1626,12 @@
         <f t="shared" si="0"/>
         <v>2.4588235294117649</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4588235294117649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -1445,8 +1642,12 @@
         <f t="shared" si="0"/>
         <v>2.5294117647058822</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5294117647058822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -1457,8 +1658,12 @@
         <f t="shared" si="0"/>
         <v>2.6235294117647059</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6235294117647059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2017</v>
       </c>
@@ -1467,6 +1672,10 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
+        <v>2.7176470588235295</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="1"/>
         <v>2.7176470588235295</v>
       </c>
     </row>
